--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B59C0F-3318-4268-A9EC-F8C843C78CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E704EAA-9862-4580-B2C8-93DDF2B2BB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Paper</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Taelman</t>
   </si>
   <si>
-    <t>Right on time: Chronological and stratigraphic modelling of the occupational surfaces at the lacustrine site of La Draga (Lake Banyoles, Spain). Bayesian analysis of C14 dates, tree-ring data and stratigraphical information</t>
-  </si>
-  <si>
-    <t>Andreaki and Barcelo</t>
-  </si>
-  <si>
     <t>Beyond chronological networks: a comparison of formal models for archaeological chronology</t>
   </si>
   <si>
@@ -80,24 +74,12 @@
     <t>BREAK HERE</t>
   </si>
   <si>
-    <t>An Alternative Method for Sequence Matching in Dendrochronology using Dynamic Time Warping</t>
-  </si>
-  <si>
-    <t>Ochocki and Bronk Ramsey</t>
-  </si>
-  <si>
     <t>Dendrochronological networks: from time series to networks and back to spatio-temporal patterns again</t>
   </si>
   <si>
     <t>Visser</t>
   </si>
   <si>
-    <t>EXTENDING THE EXTENDED MATRIX (EM) with CIDOC-CRM: A FORMAL METHOD and RESEARCH SOFTWARE for VIRTUAL RECONSTRUCTION PROCESSES and beyond</t>
-  </si>
-  <si>
-    <t>Giovannini and Demetrescu</t>
-  </si>
-  <si>
     <t>Conventions for Archaeological Stratigraphic and Chronological Data</t>
   </si>
   <si>
@@ -114,6 +96,9 @@
   </si>
   <si>
     <t>Schmidle et al.</t>
+  </si>
+  <si>
+    <t>Discussion</t>
   </si>
 </sst>
 </file>
@@ -465,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E26953-B9F0-4B28-9D99-ABEF9AD37ADE}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,12 +510,12 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -563,23 +548,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E704EAA-9862-4580-B2C8-93DDF2B2BB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E6357-7795-4AA5-9012-37751F3DA5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Paper</t>
   </si>
@@ -50,15 +50,9 @@
     <t>General introduction</t>
   </si>
   <si>
-    <t>Levy et al.</t>
-  </si>
-  <si>
     <t>Aoristic temporal study of heterogeneous amphora data in Roman Germania reveals centuries-long change in regional patterns of production and consumption</t>
   </si>
   <si>
-    <t>Brughmans et al.</t>
-  </si>
-  <si>
     <t>Temporal Modelling of the Roman Marble Trade</t>
   </si>
   <si>
@@ -83,22 +77,31 @@
     <t>Conventions for Archaeological Stratigraphic and Chronological Data</t>
   </si>
   <si>
-    <t>May and Taylor</t>
-  </si>
-  <si>
     <t>Automating chronology construction and archiving (FAIR)ly along the way</t>
   </si>
   <si>
-    <t>Buck et al.</t>
-  </si>
-  <si>
     <t>ChronOntology for periodisations in Entangled Africa</t>
   </si>
   <si>
-    <t>Schmidle et al.</t>
-  </si>
-  <si>
     <t>Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brughmans, Franconi, Borisova, Paulsen </t>
+  </si>
+  <si>
+    <t>Levy, Huet, Thiery, Mees</t>
+  </si>
+  <si>
+    <t>May, Taylor</t>
+  </si>
+  <si>
+    <t>Buck, May, Dye</t>
+  </si>
+  <si>
+    <t>Huet, Levy, Thiery, Mees</t>
+  </si>
+  <si>
+    <t>Schmidle, Sigl, Reinke, Lammers, Lukas</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,76 +482,76 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E6357-7795-4AA5-9012-37751F3DA5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1B22C-CCCF-4F20-99BB-CA334934B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>hour</t>
   </si>
   <si>
-    <t>General introduction</t>
-  </si>
-  <si>
     <t>Aoristic temporal study of heterogeneous amphora data in Roman Germania reveals centuries-long change in regional patterns of production and consumption</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Levy</t>
   </si>
   <si>
-    <t>BREAK HERE</t>
-  </si>
-  <si>
     <t>Dendrochronological networks: from time series to networks and back to spatio-temporal patterns again</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>ChronOntology for periodisations in Entangled Africa</t>
   </si>
   <si>
-    <t>Discussion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brughmans, Franconi, Borisova, Paulsen </t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Schmidle, Sigl, Reinke, Lammers, Lukas</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>Discussing the need for a new CAA Special Interest Group on chronological modelling</t>
+  </si>
+  <si>
+    <t>General introduction to the S12 session</t>
   </si>
 </sst>
 </file>
@@ -137,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,14 +457,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="193.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,82 +480,110 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="C4" s="1">
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="C5" s="1">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.63888888888888895</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.65277777777777779</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1B22C-CCCF-4F20-99BB-CA334934B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B8C26F-03A8-4FFB-B12F-AC8A4E497BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Paper</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>General introduction to the S12 session</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -137,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +461,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,6 +530,12 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">

--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B8C26F-03A8-4FFB-B12F-AC8A4E497BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB74AE3-B1BF-4BA4-BD20-92AF870AB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Paper</t>
   </si>
@@ -105,6 +105,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>15:40</t>
   </si>
 </sst>
 </file>
@@ -140,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,14 +489,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="193.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,7 +506,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -489,8 +517,8 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.54166666666666663</v>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,8 +528,8 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.55555555555555558</v>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,8 +539,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.56944444444444442</v>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,18 +550,18 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.58333333333333337</v>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -544,8 +572,8 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.59722222222222221</v>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,8 +583,8 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.61111111111111105</v>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,8 +594,8 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.625</v>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,8 +605,8 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.63888888888888895</v>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,8 +616,8 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.65277777777777779</v>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB74AE3-B1BF-4BA4-BD20-92AF870AB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5FF4FC-503E-4B1A-B354-5AA8C2D8B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Paper</t>
   </si>
@@ -86,27 +86,18 @@
     <t>May, Taylor</t>
   </si>
   <si>
-    <t>Buck, May, Dye</t>
-  </si>
-  <si>
     <t>Huet, Levy, Thiery, Mees</t>
   </si>
   <si>
     <t>Schmidle, Sigl, Reinke, Lammers, Lukas</t>
   </si>
   <si>
-    <t>BREAK</t>
-  </si>
-  <si>
     <t>Discussing the need for a new CAA Special Interest Group on chronological modelling</t>
   </si>
   <si>
     <t>General introduction to the S12 session</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>13:00</t>
   </si>
   <si>
@@ -132,6 +123,9 @@
   </si>
   <si>
     <t>15:40</t>
+  </si>
+  <si>
+    <t>Moody, May, Dye, Buck</t>
   </si>
 </sst>
 </file>
@@ -167,11 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,17 +478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E26953-B9F0-4B28-9D99-ABEF9AD37ADE}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="193.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,19 +498,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,8 +520,8 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,8 +531,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,74 +542,63 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/s12/papers_ruling_order.xlsx
+++ b/s12/papers_ruling_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\caa23\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5FF4FC-503E-4B1A-B354-5AA8C2D8B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A10953D-9E63-4534-8DB5-3FCDDFD6F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95609C28-4C62-4DF2-9F4C-817D7E707B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Paper</t>
   </si>
@@ -119,13 +119,19 @@
     <t>15:00</t>
   </si>
   <si>
-    <t>15:20</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
     <t>Moody, May, Dye, Buck</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>16:10</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E26953-B9F0-4B28-9D99-ABEF9AD37ADE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,10 +576,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -581,24 +584,35 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
